--- a/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>player</t>
   </si>
   <si>
+    <t>ast_per_game</t>
+  </si>
+  <si>
+    <t>blk_per_game</t>
+  </si>
+  <si>
     <t>pts_per_game</t>
+  </si>
+  <si>
+    <t>stl_per_game</t>
+  </si>
+  <si>
+    <t>trb_per_game</t>
   </si>
   <si>
     <t>LeBron James</t>
@@ -383,40 +395,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7.46</v>
       </c>
       <c r="C2">
-        <v>26.90909090909091</v>
+        <v>0.72</v>
+      </c>
+      <c r="D2">
+        <v>26.91</v>
+      </c>
+      <c r="E2">
+        <v>1.47</v>
+      </c>
+      <c r="F2">
+        <v>7.56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>5.14</v>
       </c>
       <c r="C3">
-        <v>29.45333333333333</v>
+        <v>0.83</v>
+      </c>
+      <c r="D3">
+        <v>29.45</v>
+      </c>
+      <c r="E3">
+        <v>2.29</v>
+      </c>
+      <c r="F3">
+        <v>6.12</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
@@ -426,19 +426,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.46</v>
+        <v>7.45</v>
       </c>
       <c r="C2">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="D2">
-        <v>26.91</v>
+        <v>26.96</v>
       </c>
       <c r="E2">
         <v>1.47</v>
       </c>
       <c r="F2">
-        <v>7.56</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
@@ -426,19 +426,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.45</v>
+        <v>7.46</v>
       </c>
       <c r="C2">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="D2">
-        <v>26.96</v>
+        <v>26.98</v>
       </c>
       <c r="E2">
         <v>1.47</v>
       </c>
       <c r="F2">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
+++ b/michael_jordan_and_lebron_james_per_game_avgs_pivot_table.xlsx
@@ -432,13 +432,13 @@
         <v>0.72</v>
       </c>
       <c r="D2">
-        <v>26.98</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="F2">
-        <v>7.53</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
